--- a/数据整理/stocks/港股/01478-丘钛科技.xlsx
+++ b/数据整理/stocks/港股/01478-丘钛科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>96.45</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.21</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3051</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001581</t>
+          <t>009138</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华安沪港深通精选灵活配置混合</t>
+          <t>嘉实瑞成两年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>20.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7877</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001900</t>
+          <t>001581</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安精选价值混合</t>
+          <t>华安沪港深通精选灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.58</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2225</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005142</t>
+          <t>009139</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
+          <t>嘉实瑞成两年持有期混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>78.08</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2042</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005143</t>
+          <t>007291</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
+          <t>汇丰晋信港股通双核策略混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>78.08</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>007291</t>
+          <t>005142</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>汇丰晋信港股通双核策略混合</t>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.38</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>78.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009138</t>
+          <t>005143</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>嘉实瑞成两年持有期混合A</t>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>78.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009139</t>
+          <t>001900</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>嘉实瑞成两年持有期混合C</t>
+          <t>诺安精选价值混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +832,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -762,26 +862,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002332</t>
+          <t>160726</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信沪港深股票A</t>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>31.16</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5767</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -790,26 +900,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002333</t>
+          <t>009138</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信沪港深股票C</t>
+          <t>嘉实瑞成两年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>22.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0736</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -818,26 +938,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001581</t>
+          <t>002332</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华安沪港深通精选灵活配置混合</t>
+          <t>汇丰晋信沪港深股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85.33</t>
+          <t>21.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.74</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9370</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -846,26 +976,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001900</t>
+          <t>005504</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>诺安精选价值混合</t>
+          <t>汇添富沪港深大盘价值混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>85.58</t>
+          <t>14.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5884</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005142</t>
+          <t>007291</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合A</t>
+          <t>汇丰晋信港股通双核策略混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>10.72</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5724</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005143</t>
+          <t>001581</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中融沪港深大消费主题灵活配置混合C</t>
+          <t>华安沪港深通精选灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.60</t>
+          <t>9.71</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>85.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2661</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005504</t>
+          <t>009139</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>汇添富沪港深大盘价值混合</t>
+          <t>嘉实瑞成两年持有期混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.55</t>
+          <t>5.25</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2562</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -968,15 +1138,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>93.17</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>3.62</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006205</t>
+          <t>002333</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇添富沪港深优势精选定期开放混合</t>
+          <t>汇丰晋信沪港深股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.54</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006373</t>
+          <t>005142</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
+          <t>中融沪港深大消费主题灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>85.34</t>
+          <t>0.71</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006374</t>
+          <t>006205</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
+          <t>汇添富沪港深优势精选定期开放混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>85.34</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>007291</t>
+          <t>006373</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>汇丰晋信港股通双核策略混合</t>
+          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>160726</t>
+          <t>006374</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>嘉实瑞享定期开放灵活配置混合</t>
+          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>98.20</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.06</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1126,25 +1356,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009138</t>
+          <t>005143</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>嘉实瑞成两年持有期混合A</t>
+          <t>中融沪港深大消费主题灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.11</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009139</t>
+          <t>001900</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>嘉实瑞成两年持有期混合C</t>
+          <t>诺安精选价值混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>92.11</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.88</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/01478-丘钛科技.xlsx
+++ b/数据整理/stocks/港股/01478-丘钛科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1429,4 +1430,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5618</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0627</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6702</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2074</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001581</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安沪港深通精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2058</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01478-丘钛科技.xlsx
+++ b/数据整理/stocks/港股/01478-丘钛科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1752,4 +1753,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1027</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009138</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7508</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009139</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实瑞成两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1472</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1152</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>71.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01478-丘钛科技.xlsx
+++ b/数据整理/stocks/港股/01478-丘钛科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2075,4 +2076,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/01478-丘钛科技.xlsx
+++ b/数据整理/stocks/港股/01478-丘钛科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2084,7 +2085,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2095,17 +2096,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2115,14 +2136,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9721</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.19</v>
       </c>
     </row>
     <row r="3">
@@ -2131,14 +2174,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.77</v>
+          <t>005504</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富沪港深大盘价值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2147,14 +2212,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.56</v>
+          <t>006205</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富沪港深优势精选定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2163,13 +2250,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.68</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01478-丘钛科技.xlsx
+++ b/数据整理/stocks/港股/01478-丘钛科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2293,7 +2294,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2304,17 +2305,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2324,14 +2345,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.18</v>
+          <t>160726</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实瑞享定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5376</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2340,14 +2383,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>2.19</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="4">
@@ -2356,14 +2489,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>3.77</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="5">
@@ -2372,14 +2505,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>5.56</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="6">
@@ -2388,13 +2521,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.68</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/01478-丘钛科技.xlsx
+++ b/数据整理/stocks/港股/01478-丘钛科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2426,7 +2427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2437,17 +2438,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2457,14 +2478,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>001900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安精选价值混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2473,14 +2568,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1.18</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="4">
@@ -2489,14 +2584,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>2.19</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="5">
@@ -2505,14 +2600,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>3.77</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="6">
@@ -2521,14 +2616,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>5.56</v>
+        <v>3.77</v>
       </c>
     </row>
     <row r="7">
@@ -2537,13 +2632,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.68</v>
       </c>
     </row>
